--- a/Work Code/acadexceltoxml/CCI_Drawing_Database.xlsx
+++ b/Work Code/acadexceltoxml/CCI_Drawing_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuess\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuess\Documents\Obsidian\Work Code\acadexceltoxml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A5410A-D0DA-474F-B669-E2CD9E344574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB7871-D90C-442F-BB06-EC90EBD50204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BC64B3D6-F926-4178-9119-B2CF4B991D10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BC64B3D6-F926-4178-9119-B2CF4B991D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3945,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95399A0F-8187-4731-A75E-FC6EBCF07752}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
